--- a/Test Data/Verify_24V_Alarm_Load_On_Addition_Deletion_Of_RBus_And_XBus.xlsx
+++ b/Test Data/Verify_24V_Alarm_Load_On_Addition_Deletion_Of_RBus_And_XBus.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F9F27-678D-42F8-A7E1-609A5564AE31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Add RBus Devices" sheetId="6" r:id="rId1"/>
@@ -107,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,108 +491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B7763E-4899-4B4A-9425-376E12C2FDDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -621,6 +519,107 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -693,10 +692,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE58F80-8977-4473-A63B-0DE6D21BE134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
